--- a/Code/Results/Cases/Case_8_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.71347032239706</v>
+        <v>21.44834868163041</v>
       </c>
       <c r="C2">
-        <v>20.08215155277901</v>
+        <v>20.81570012669403</v>
       </c>
       <c r="D2">
-        <v>3.039491411648153</v>
+        <v>3.787386060046586</v>
       </c>
       <c r="E2">
-        <v>7.102514858156829</v>
+        <v>7.750731774363399</v>
       </c>
       <c r="F2">
-        <v>38.16007591465115</v>
+        <v>35.18119421284555</v>
       </c>
       <c r="G2">
-        <v>2.108536812937918</v>
+        <v>4.517918499439152</v>
       </c>
       <c r="H2">
-        <v>2.302667967524622</v>
+        <v>2.0226830628638</v>
       </c>
       <c r="I2">
-        <v>2.804773685370822</v>
+        <v>2.483474593981081</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>22.40668904527018</v>
+        <v>19.94062030253452</v>
       </c>
       <c r="L2">
-        <v>6.11115154591685</v>
+        <v>16.46835116301984</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.28746263464431</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.253114633004084</v>
       </c>
       <c r="O2">
-        <v>17.0764229680276</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.55137683406908</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.84417917062392</v>
+      </c>
+      <c r="R2">
+        <v>12.93794574281185</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.26052488869993</v>
+        <v>20.08889183541316</v>
       </c>
       <c r="C3">
-        <v>18.76059473631865</v>
+        <v>19.40568355195458</v>
       </c>
       <c r="D3">
-        <v>2.942999556386716</v>
+        <v>3.724563148025399</v>
       </c>
       <c r="E3">
-        <v>6.826146913779811</v>
+        <v>7.539287594535438</v>
       </c>
       <c r="F3">
-        <v>36.68908908031312</v>
+        <v>33.85204980582724</v>
       </c>
       <c r="G3">
-        <v>2.115629473441193</v>
+        <v>5.355198253753666</v>
       </c>
       <c r="H3">
-        <v>2.630694011319187</v>
+        <v>2.29163155870242</v>
       </c>
       <c r="I3">
-        <v>3.067724505461904</v>
+        <v>2.677896688763257</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>21.87993392767891</v>
+        <v>19.53767262819913</v>
       </c>
       <c r="L3">
-        <v>5.961629920262381</v>
+        <v>16.33642352812497</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.79598565311914</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.140808225113656</v>
       </c>
       <c r="O3">
-        <v>16.18640933444733</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.68898197182072</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.95792600757865</v>
+      </c>
+      <c r="R3">
+        <v>13.07103383045261</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.31782033456565</v>
+        <v>19.20260633712511</v>
       </c>
       <c r="C4">
-        <v>17.91120194952734</v>
+        <v>18.49541726663253</v>
       </c>
       <c r="D4">
-        <v>2.883355178356718</v>
+        <v>3.687047557534862</v>
       </c>
       <c r="E4">
-        <v>6.651493407313025</v>
+        <v>7.406426081637452</v>
       </c>
       <c r="F4">
-        <v>35.76465842036896</v>
+        <v>33.01016781513784</v>
       </c>
       <c r="G4">
-        <v>2.120113365842865</v>
+        <v>5.885657405046337</v>
       </c>
       <c r="H4">
-        <v>2.838389674446964</v>
+        <v>2.462336101812582</v>
       </c>
       <c r="I4">
-        <v>3.234820750381864</v>
+        <v>2.80223643997942</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.55335747022641</v>
+        <v>19.2845897865675</v>
       </c>
       <c r="L4">
-        <v>5.867036890962791</v>
+        <v>16.24715261703646</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.50401633300709</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.06979134806003</v>
       </c>
       <c r="O4">
-        <v>15.61711234556124</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.77372246904508</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.38901614911374</v>
+      </c>
+      <c r="R4">
+        <v>13.15283109762141</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.91225498377152</v>
+        <v>18.82017295716962</v>
       </c>
       <c r="C5">
-        <v>17.56066100699573</v>
+        <v>18.11764270904714</v>
       </c>
       <c r="D5">
-        <v>2.86070860407309</v>
+        <v>3.674041632894907</v>
       </c>
       <c r="E5">
-        <v>6.579952738791635</v>
+        <v>7.352456871067963</v>
       </c>
       <c r="F5">
-        <v>35.36641327717355</v>
+        <v>32.64518893151418</v>
       </c>
       <c r="G5">
-        <v>2.12198654262516</v>
+        <v>6.107510734514536</v>
       </c>
       <c r="H5">
-        <v>2.925141593732425</v>
+        <v>2.533708064508074</v>
       </c>
       <c r="I5">
-        <v>3.307370268518765</v>
+        <v>2.857752691945839</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.40708539220725</v>
+        <v>19.16854714556218</v>
       </c>
       <c r="L5">
-        <v>5.827393960977421</v>
+        <v>16.19935330369858</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.3797227471123</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.040017915704851</v>
       </c>
       <c r="O5">
-        <v>15.37818740846666</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.80601788175791</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.1498159603206</v>
+      </c>
+      <c r="R5">
+        <v>13.18456757436544</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.83344557562012</v>
+        <v>18.74574615852417</v>
       </c>
       <c r="C6">
-        <v>17.50807881857378</v>
+        <v>18.06003254013626</v>
       </c>
       <c r="D6">
-        <v>2.85911703237586</v>
+        <v>3.674365238341284</v>
       </c>
       <c r="E6">
-        <v>6.569084675760571</v>
+        <v>7.344579303271853</v>
       </c>
       <c r="F6">
-        <v>35.27969295321595</v>
+        <v>32.56495381633122</v>
       </c>
       <c r="G6">
-        <v>2.122314919367203</v>
+        <v>6.146411334317432</v>
       </c>
       <c r="H6">
-        <v>2.940244524363856</v>
+        <v>2.546110945432198</v>
       </c>
       <c r="I6">
-        <v>3.323359747227693</v>
+        <v>2.871675656703377</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.36747771141492</v>
+        <v>19.13509011207545</v>
       </c>
       <c r="L6">
-        <v>5.820293620504821</v>
+        <v>16.17990436568659</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.34923979604554</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.034659185498088</v>
       </c>
       <c r="O6">
-        <v>15.33650324253849</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.80856636363426</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.10813132403035</v>
+      </c>
+      <c r="R6">
+        <v>13.1878564402827</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.28382433314817</v>
+        <v>19.1325277981961</v>
       </c>
       <c r="C7">
-        <v>17.92300750586072</v>
+        <v>18.43356151423469</v>
       </c>
       <c r="D7">
-        <v>2.888900651527137</v>
+        <v>3.70802243291909</v>
       </c>
       <c r="E7">
-        <v>6.653460959452194</v>
+        <v>7.416669373092644</v>
       </c>
       <c r="F7">
-        <v>35.70456695047274</v>
+        <v>32.84731926426637</v>
       </c>
       <c r="G7">
-        <v>2.120179771970486</v>
+        <v>5.950738846572764</v>
       </c>
       <c r="H7">
-        <v>2.841171986825885</v>
+        <v>2.46760465212026</v>
       </c>
       <c r="I7">
-        <v>3.246086564230117</v>
+        <v>2.818305883944149</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.50996317443275</v>
+        <v>19.18804133392686</v>
       </c>
       <c r="L7">
-        <v>5.86522319847849</v>
+        <v>16.17046553337666</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.43397309935133</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.066897887867792</v>
       </c>
       <c r="O7">
-        <v>15.60939570962466</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.76650714214597</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.36111959506403</v>
+      </c>
+      <c r="R7">
+        <v>13.14007063196376</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.18796261888554</v>
+        <v>20.84064800728175</v>
       </c>
       <c r="C8">
-        <v>19.65444361054839</v>
+        <v>20.13449517012316</v>
       </c>
       <c r="D8">
-        <v>3.013685516359082</v>
+        <v>3.822311211059896</v>
       </c>
       <c r="E8">
-        <v>7.011942501790887</v>
+        <v>7.708214768617526</v>
       </c>
       <c r="F8">
-        <v>37.58837956019335</v>
+        <v>34.32775426872979</v>
       </c>
       <c r="G8">
-        <v>2.111008791485881</v>
+        <v>5.111909274966444</v>
       </c>
       <c r="H8">
-        <v>2.416568807613172</v>
+        <v>2.125689378372055</v>
       </c>
       <c r="I8">
-        <v>2.907843719935249</v>
+        <v>2.575322699181132</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>22.17246175437339</v>
+        <v>19.5715292433219</v>
       </c>
       <c r="L8">
-        <v>6.058538554424358</v>
+        <v>16.24507550856791</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.94312402982118</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.208890717164406</v>
       </c>
       <c r="O8">
-        <v>16.76872938034203</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.58887419125636</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.47478692368157</v>
+      </c>
+      <c r="R8">
+        <v>12.95326688564298</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.56507134003818</v>
+        <v>24.02812465730149</v>
       </c>
       <c r="C9">
-        <v>22.75495722137592</v>
+        <v>23.4020559516772</v>
       </c>
       <c r="D9">
-        <v>3.245988559953905</v>
+        <v>3.98827976223661</v>
       </c>
       <c r="E9">
-        <v>7.671196322243966</v>
+        <v>8.220384827454348</v>
       </c>
       <c r="F9">
-        <v>41.19062301879453</v>
+        <v>37.49140025303667</v>
       </c>
       <c r="G9">
-        <v>2.093929916919107</v>
+        <v>3.30142249118047</v>
       </c>
       <c r="H9">
-        <v>1.62895723206322</v>
+        <v>1.634275910906625</v>
       </c>
       <c r="I9">
-        <v>2.679172145891262</v>
+        <v>2.846351228224416</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.5142610092165</v>
+        <v>20.54998773379257</v>
       </c>
       <c r="L9">
-        <v>6.418065937014592</v>
+        <v>16.54268504746615</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.20428454077011</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.4780573228869</v>
       </c>
       <c r="O9">
-        <v>18.8623959442149</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>13.25523009937289</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.53856912088591</v>
+      </c>
+      <c r="R9">
+        <v>12.62352435068732</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.76153482937267</v>
+        <v>25.89937178574785</v>
       </c>
       <c r="C10">
-        <v>24.78119504641584</v>
+        <v>25.15149188693987</v>
       </c>
       <c r="D10">
-        <v>3.400688260840015</v>
+        <v>4.171019695412677</v>
       </c>
       <c r="E10">
-        <v>8.024371546547773</v>
+        <v>8.508156023854735</v>
       </c>
       <c r="F10">
-        <v>43.39178661781649</v>
+        <v>38.868444446334</v>
       </c>
       <c r="G10">
-        <v>2.082192273330127</v>
+        <v>3.930358301556998</v>
       </c>
       <c r="H10">
-        <v>2.016966192122215</v>
+        <v>2.040911859752955</v>
       </c>
       <c r="I10">
-        <v>3.10253522211439</v>
+        <v>3.143250661403631</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.31531820779405</v>
+        <v>20.81055564449543</v>
       </c>
       <c r="L10">
-        <v>6.609474134595314</v>
+        <v>16.41190077707082</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.81138180908712</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.601353237778092</v>
       </c>
       <c r="O10">
-        <v>20.13651388932624</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.97725887626022</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.68855938520153</v>
+      </c>
+      <c r="R10">
+        <v>12.33191737056572</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.13708113996459</v>
+        <v>25.94135103027905</v>
       </c>
       <c r="C11">
-        <v>24.77281107573726</v>
+        <v>24.42478657265471</v>
       </c>
       <c r="D11">
-        <v>3.349554325531543</v>
+        <v>4.144935799834058</v>
       </c>
       <c r="E11">
-        <v>7.387223792385623</v>
+        <v>7.806502382309263</v>
       </c>
       <c r="F11">
-        <v>41.76372050653921</v>
+        <v>36.24742076565964</v>
       </c>
       <c r="G11">
-        <v>2.079226401484425</v>
+        <v>7.843002866150779</v>
       </c>
       <c r="H11">
-        <v>2.919299626619446</v>
+        <v>2.898766150986927</v>
       </c>
       <c r="I11">
-        <v>3.211872268644243</v>
+        <v>3.198308447242742</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.37321733953956</v>
+        <v>19.36919539806058</v>
       </c>
       <c r="L11">
-        <v>6.259948934396845</v>
+        <v>15.23388483895452</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.84956553223317</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.229923319364257</v>
       </c>
       <c r="O11">
-        <v>19.46229593303741</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.61226515076057</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.81562633794311</v>
+      </c>
+      <c r="R11">
+        <v>12.09034220830373</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.02640191816973</v>
+        <v>25.72895907388324</v>
       </c>
       <c r="C12">
-        <v>24.32548662826762</v>
+        <v>23.6227586090975</v>
       </c>
       <c r="D12">
-        <v>3.302630413797029</v>
+        <v>4.025932778937245</v>
       </c>
       <c r="E12">
-        <v>7.007740668590857</v>
+        <v>7.304090480873852</v>
       </c>
       <c r="F12">
-        <v>39.97182911541042</v>
+        <v>34.1105915128996</v>
       </c>
       <c r="G12">
-        <v>2.07897731472926</v>
+        <v>9.750934808481173</v>
       </c>
       <c r="H12">
-        <v>4.169864661039886</v>
+        <v>4.150182590630125</v>
       </c>
       <c r="I12">
-        <v>3.217199355554817</v>
+        <v>3.191116992349659</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.45638573169432</v>
+        <v>18.33444472533628</v>
       </c>
       <c r="L12">
-        <v>6.047753113390048</v>
+        <v>14.45227340970119</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.08409150554036</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.016881304857553</v>
       </c>
       <c r="O12">
-        <v>18.62109123653943</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.40731476169814</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.89205064951991</v>
+      </c>
+      <c r="R12">
+        <v>12.02695184673707</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.49817710335795</v>
+        <v>25.34372563914714</v>
       </c>
       <c r="C13">
-        <v>23.51592079221658</v>
+        <v>22.84054778524957</v>
       </c>
       <c r="D13">
-        <v>3.261448508950119</v>
+        <v>3.82541422707274</v>
       </c>
       <c r="E13">
-        <v>6.832315204940839</v>
+        <v>6.984905125097218</v>
       </c>
       <c r="F13">
-        <v>37.83240542988545</v>
+        <v>32.31851498745255</v>
       </c>
       <c r="G13">
-        <v>2.080861999769113</v>
+        <v>9.363931702986406</v>
       </c>
       <c r="H13">
-        <v>5.477206888823472</v>
+        <v>5.470979177531976</v>
       </c>
       <c r="I13">
-        <v>3.145627031246877</v>
+        <v>3.143993065205185</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.43276001009601</v>
+        <v>17.59440364715823</v>
       </c>
       <c r="L13">
-        <v>5.934137020830104</v>
+        <v>13.94352897210358</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.4679435817643</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.922324917719313</v>
       </c>
       <c r="O13">
-        <v>17.57269800352683</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.3027573974926</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>16.88370163970482</v>
+      </c>
+      <c r="R13">
+        <v>12.05210304795975</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.9258074899097</v>
+        <v>24.98120172256648</v>
       </c>
       <c r="C14">
-        <v>22.77717465546767</v>
+        <v>22.2873568896165</v>
       </c>
       <c r="D14">
-        <v>3.239968769258963</v>
+        <v>3.674613211956055</v>
       </c>
       <c r="E14">
-        <v>6.846232179491684</v>
+        <v>6.919061221782634</v>
       </c>
       <c r="F14">
-        <v>36.14573695255107</v>
+        <v>31.17646783523992</v>
       </c>
       <c r="G14">
-        <v>2.083141250431719</v>
+        <v>8.096812677907685</v>
       </c>
       <c r="H14">
-        <v>6.459352186750039</v>
+        <v>6.456538603275169</v>
       </c>
       <c r="I14">
-        <v>3.062093096823325</v>
+        <v>3.093792208911794</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.65464272925918</v>
+        <v>17.1851958801976</v>
       </c>
       <c r="L14">
-        <v>5.919332864191668</v>
+        <v>13.68886184172317</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.08750794690176</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.929402957322341</v>
       </c>
       <c r="O14">
-        <v>16.73155735875472</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.27862546944494</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>16.12325742949761</v>
+      </c>
+      <c r="R14">
+        <v>12.09787088931616</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.68609971125784</v>
+        <v>24.84069517658916</v>
       </c>
       <c r="C15">
-        <v>22.52175639933287</v>
+        <v>22.14864438257313</v>
       </c>
       <c r="D15">
-        <v>3.230761929604351</v>
+        <v>3.631833980975625</v>
       </c>
       <c r="E15">
-        <v>6.856785679232473</v>
+        <v>6.924049408814394</v>
       </c>
       <c r="F15">
-        <v>35.64316149766984</v>
+        <v>30.93552633912845</v>
       </c>
       <c r="G15">
-        <v>2.084185335308617</v>
+        <v>7.370069831529559</v>
       </c>
       <c r="H15">
-        <v>6.702217555069915</v>
+        <v>6.696297390541194</v>
       </c>
       <c r="I15">
-        <v>3.025954819587542</v>
+        <v>3.073787462498502</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.42978047595201</v>
+        <v>17.12276148595702</v>
       </c>
       <c r="L15">
-        <v>5.919046099204183</v>
+        <v>13.66367688460225</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.0087435274824</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.938547339107069</v>
       </c>
       <c r="O15">
-        <v>16.48002204540854</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.28861137366617</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>15.91395897209892</v>
+      </c>
+      <c r="R15">
+        <v>12.11719673547366</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.81564582784434</v>
+        <v>24.37068754925305</v>
       </c>
       <c r="C16">
-        <v>21.79148265028356</v>
+        <v>22.0143367078367</v>
       </c>
       <c r="D16">
-        <v>3.167443141047927</v>
+        <v>3.543558252420918</v>
       </c>
       <c r="E16">
-        <v>6.719292611447192</v>
+        <v>6.889151557967891</v>
       </c>
       <c r="F16">
-        <v>35.00908827474559</v>
+        <v>31.36265363966634</v>
       </c>
       <c r="G16">
-        <v>2.088815960494682</v>
+        <v>4.124970000496768</v>
       </c>
       <c r="H16">
-        <v>6.510566638624516</v>
+        <v>6.48769530692581</v>
       </c>
       <c r="I16">
-        <v>2.862958911184801</v>
+        <v>2.980005576009987</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.24259735974317</v>
+        <v>17.52825909276565</v>
       </c>
       <c r="L16">
-        <v>5.851413423150699</v>
+        <v>14.05552168637902</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.18225562956073</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.908995810549874</v>
       </c>
       <c r="O16">
-        <v>16.09429123336569</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.42350772011743</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>15.71539882072973</v>
+      </c>
+      <c r="R16">
+        <v>12.19397894742502</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.45339571078485</v>
+        <v>24.15752271233268</v>
       </c>
       <c r="C17">
-        <v>21.63633453932768</v>
+        <v>22.13572056493825</v>
       </c>
       <c r="D17">
-        <v>3.128157202843847</v>
+        <v>3.544060197952018</v>
       </c>
       <c r="E17">
-        <v>6.578189984734166</v>
+        <v>6.838753348617077</v>
       </c>
       <c r="F17">
-        <v>35.44590069696239</v>
+        <v>32.19402332443168</v>
       </c>
       <c r="G17">
-        <v>2.091174189384749</v>
+        <v>3.097922272209339</v>
       </c>
       <c r="H17">
-        <v>5.781702796361529</v>
+        <v>5.745485476003334</v>
       </c>
       <c r="I17">
-        <v>2.782053763637104</v>
+        <v>2.931817537040527</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.51863300439287</v>
+        <v>17.99898758794097</v>
       </c>
       <c r="L17">
-        <v>5.794592303516277</v>
+        <v>14.45996116391009</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.46560526813667</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.868578873723098</v>
       </c>
       <c r="O17">
-        <v>16.26113229324809</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.53717312007011</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>15.95922927915221</v>
+      </c>
+      <c r="R17">
+        <v>12.24950440802223</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.53232208617516</v>
+        <v>24.23238719468089</v>
       </c>
       <c r="C18">
-        <v>21.95768436135194</v>
+        <v>22.60378492417308</v>
       </c>
       <c r="D18">
-        <v>3.123248235565641</v>
+        <v>3.607007403311562</v>
       </c>
       <c r="E18">
-        <v>6.567623624217165</v>
+        <v>6.912791082166976</v>
       </c>
       <c r="F18">
-        <v>36.89087355863928</v>
+        <v>33.69332028722169</v>
       </c>
       <c r="G18">
-        <v>2.091724852756087</v>
+        <v>2.790787548575873</v>
       </c>
       <c r="H18">
-        <v>4.523971518831686</v>
+        <v>4.474532684657306</v>
       </c>
       <c r="I18">
-        <v>2.761586104626654</v>
+        <v>2.919175385610647</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.2550677403546</v>
+        <v>18.71308705626936</v>
       </c>
       <c r="L18">
-        <v>5.812119299488133</v>
+        <v>15.01757259867119</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.97941028875591</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.886452146605456</v>
       </c>
       <c r="O18">
-        <v>16.92750634692366</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.66663897263342</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.65163436638601</v>
+      </c>
+      <c r="R18">
+        <v>12.30244764926705</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.89649238516699</v>
+        <v>24.52030157495251</v>
       </c>
       <c r="C19">
-        <v>22.65581073000104</v>
+        <v>23.38097647344855</v>
       </c>
       <c r="D19">
-        <v>3.176966540606075</v>
+        <v>3.744726229164683</v>
       </c>
       <c r="E19">
-        <v>6.877984091815851</v>
+        <v>7.292306074931466</v>
       </c>
       <c r="F19">
-        <v>38.93482482541985</v>
+        <v>35.60071723530887</v>
       </c>
       <c r="G19">
-        <v>2.090734036749238</v>
+        <v>2.607034274292303</v>
       </c>
       <c r="H19">
-        <v>3.007746680685765</v>
+        <v>2.960742708532229</v>
       </c>
       <c r="I19">
-        <v>2.802293133983485</v>
+        <v>2.950558532600097</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.23988989676413</v>
+        <v>19.55348604141468</v>
       </c>
       <c r="L19">
-        <v>5.988514273683431</v>
+        <v>15.64569670137109</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.62481887532567</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.049748681464513</v>
       </c>
       <c r="O19">
-        <v>17.92722484461857</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.8178869083468</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.64929711336252</v>
+      </c>
+      <c r="R19">
+        <v>12.36424545922475</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.1149479763394</v>
+        <v>25.46211904873485</v>
       </c>
       <c r="C20">
-        <v>24.29524302726101</v>
+        <v>24.9331767475738</v>
       </c>
       <c r="D20">
-        <v>3.374477237520475</v>
+        <v>4.090710291208632</v>
       </c>
       <c r="E20">
-        <v>7.934736444942845</v>
+        <v>8.410871780052474</v>
       </c>
       <c r="F20">
-        <v>42.6637160538612</v>
+        <v>38.68645968444979</v>
       </c>
       <c r="G20">
-        <v>2.085368959256297</v>
+        <v>2.678538263570841</v>
       </c>
       <c r="H20">
-        <v>1.874688835781896</v>
+        <v>1.939811348089962</v>
       </c>
       <c r="I20">
-        <v>2.999010244563427</v>
+        <v>3.086153508256039</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.98365014929519</v>
+        <v>20.81361968686567</v>
       </c>
       <c r="L20">
-        <v>6.553541754329996</v>
+        <v>16.49838970497794</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.70690192630385</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.56850720406848</v>
       </c>
       <c r="O20">
-        <v>19.79107608241269</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>13.02692836566625</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.43599882833269</v>
+      </c>
+      <c r="R20">
+        <v>12.41523227423271</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.88003139583077</v>
+        <v>26.38391884340935</v>
       </c>
       <c r="C21">
-        <v>25.94271267117799</v>
+        <v>25.37411215545326</v>
       </c>
       <c r="D21">
-        <v>3.517475192319318</v>
+        <v>4.564931690760797</v>
       </c>
       <c r="E21">
-        <v>8.36853082899774</v>
+        <v>8.952104855307176</v>
       </c>
       <c r="F21">
-        <v>44.80230094109513</v>
+        <v>38.50470144908939</v>
       </c>
       <c r="G21">
-        <v>2.076061953762868</v>
+        <v>9.468612562577873</v>
       </c>
       <c r="H21">
-        <v>2.295230138633119</v>
+        <v>2.219902488900447</v>
       </c>
       <c r="I21">
-        <v>3.332682303234357</v>
+        <v>3.272665465914116</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.84248164250257</v>
+        <v>20.2817059768541</v>
       </c>
       <c r="L21">
-        <v>6.790119243777501</v>
+        <v>15.87438433568221</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.59732924056336</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.728424045687796</v>
       </c>
       <c r="O21">
-        <v>20.95397205620301</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.86350148354419</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20.19450130632071</v>
+      </c>
+      <c r="R21">
+        <v>12.12862903345477</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.97822974426884</v>
+        <v>26.92041358310011</v>
       </c>
       <c r="C22">
-        <v>26.91525985193535</v>
+        <v>25.52026576059998</v>
       </c>
       <c r="D22">
-        <v>3.59560570083398</v>
+        <v>4.891983843159073</v>
       </c>
       <c r="E22">
-        <v>8.588589989710769</v>
+        <v>9.258676829580221</v>
       </c>
       <c r="F22">
-        <v>46.07828262440397</v>
+        <v>38.19233589427237</v>
       </c>
       <c r="G22">
-        <v>2.070141226845567</v>
+        <v>14.5154990452899</v>
       </c>
       <c r="H22">
-        <v>2.559563363689389</v>
+        <v>2.393656711477462</v>
       </c>
       <c r="I22">
-        <v>3.541756789195864</v>
+        <v>3.385293277650351</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.37078907442902</v>
+        <v>19.8548839834724</v>
       </c>
       <c r="L22">
-        <v>6.913485146549759</v>
+        <v>15.42129464980621</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.45983420553003</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.804295302253633</v>
       </c>
       <c r="O22">
-        <v>21.62252169867791</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.75086478278186</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.58449407447557</v>
+      </c>
+      <c r="R22">
+        <v>11.95497889199899</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.42115178402826</v>
+        <v>26.73271127217288</v>
       </c>
       <c r="C23">
-        <v>26.38577490680459</v>
+        <v>25.56695881534233</v>
       </c>
       <c r="D23">
-        <v>3.548170606009624</v>
+        <v>4.664075963885951</v>
       </c>
       <c r="E23">
-        <v>8.468678750887131</v>
+        <v>9.069317912119455</v>
       </c>
       <c r="F23">
-        <v>45.45183798691925</v>
+        <v>38.63401387021522</v>
       </c>
       <c r="G23">
-        <v>2.07325280331148</v>
+        <v>10.99894998258208</v>
       </c>
       <c r="H23">
-        <v>2.420461910677458</v>
+        <v>2.307979949924804</v>
       </c>
       <c r="I23">
-        <v>3.428042225697207</v>
+        <v>3.326655763123407</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.13178476135736</v>
+        <v>20.24816097788493</v>
       </c>
       <c r="L23">
-        <v>6.849122931138761</v>
+        <v>15.77943977689481</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.6656065034314</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.767227197260571</v>
       </c>
       <c r="O23">
-        <v>21.27201216466802</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.81941491440922</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20.42383681857851</v>
+      </c>
+      <c r="R23">
+        <v>12.05742502335015</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.17823341582488</v>
+        <v>25.52026127582286</v>
       </c>
       <c r="C24">
-        <v>24.33082975844667</v>
+        <v>24.98558627006699</v>
       </c>
       <c r="D24">
-        <v>3.37767827778455</v>
+        <v>4.097763137134955</v>
       </c>
       <c r="E24">
-        <v>8.011638210637447</v>
+        <v>8.491361865112768</v>
       </c>
       <c r="F24">
-        <v>42.94745539871162</v>
+        <v>38.96480892245438</v>
       </c>
       <c r="G24">
-        <v>2.085242663325896</v>
+        <v>2.617849622485594</v>
       </c>
       <c r="H24">
-        <v>1.883917494934112</v>
+        <v>1.94841226750064</v>
       </c>
       <c r="I24">
-        <v>2.996491190258986</v>
+        <v>3.080954587138234</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.15203791180139</v>
+        <v>20.96919868477476</v>
       </c>
       <c r="L24">
-        <v>6.599343449686917</v>
+        <v>16.61629632864978</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.82399300944071</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.612896887758001</v>
       </c>
       <c r="O24">
-        <v>19.89259436563304</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>13.06552898258984</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.53921215091529</v>
+      </c>
+      <c r="R24">
+        <v>12.43757180192764</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.65117786015255</v>
+        <v>23.2090598589608</v>
       </c>
       <c r="C25">
-        <v>21.95798873263155</v>
+        <v>22.66622849433577</v>
       </c>
       <c r="D25">
-        <v>3.192888416164382</v>
+        <v>3.934136450064258</v>
       </c>
       <c r="E25">
-        <v>7.50163977606085</v>
+        <v>8.079072440568472</v>
       </c>
       <c r="F25">
-        <v>40.14923765061369</v>
+        <v>36.71232268272328</v>
       </c>
       <c r="G25">
-        <v>2.098521453538381</v>
+        <v>3.554216298378446</v>
       </c>
       <c r="H25">
-        <v>1.839946339870289</v>
+        <v>1.651935078872485</v>
       </c>
       <c r="I25">
-        <v>2.521845965551029</v>
+        <v>2.737287008993477</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>23.08498128050322</v>
+        <v>20.30200349050273</v>
       </c>
       <c r="L25">
-        <v>6.320946924285001</v>
+        <v>16.4778773815737</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.86730478235721</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.407148821951425</v>
       </c>
       <c r="O25">
-        <v>18.30959574334238</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>13.33224512357002</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>18.02113287402805</v>
+      </c>
+      <c r="R25">
+        <v>12.71417839040969</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
